--- a/job_applications.xlsx
+++ b/job_applications.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -463,9 +463,67 @@
         <v>6/8/2025, 1:26:01 pm</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>cfdbj</v>
+      </c>
+      <c r="B3" t="str">
+        <v>parth615gupta@gmail.com</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2349080</v>
+      </c>
+      <c r="D3" t="str">
+        <v>bdk</v>
+      </c>
+      <c r="F3" t="str">
+        <v>cjfdb</v>
+      </c>
+      <c r="G3" t="str">
+        <v>23</v>
+      </c>
+      <c r="H3" t="str">
+        <v>2</v>
+      </c>
+      <c r="I3" t="str">
+        <v>Tendering Executive / Manager</v>
+      </c>
+      <c r="J3" t="str">
+        <v>30/9/2025, 2:26:37 am</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>bxasjb</v>
+      </c>
+      <c r="B4" t="str">
+        <v>22cs016@jssaten.ac.in</v>
+      </c>
+      <c r="C4" t="str">
+        <v>9389162016</v>
+      </c>
+      <c r="D4" t="str">
+        <v>hcd</v>
+      </c>
+      <c r="F4" t="str">
+        <v>chds</v>
+      </c>
+      <c r="G4" t="str">
+        <v>123</v>
+      </c>
+      <c r="H4" t="str">
+        <v>dwe</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Tendering Executive / Manager</v>
+      </c>
+      <c r="J4" t="str">
+        <v>30/9/2025, 2:49:47 am</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J4"/>
   </ignoredErrors>
 </worksheet>
 </file>